--- a/doc/ue_playerstate.xlsx
+++ b/doc/ue_playerstate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\guanzhongdaoke\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D3256E-CE29-44C9-8C20-BC921676B10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7826A7AB-8924-4550-A109-B670C76858B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="64">
   <si>
     <t>角色相关的数据信息类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,19 +160,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DS下，创建PlayerController时，创建PlayerState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！注意，DS下没有LocalPlayer，所以不是在Loadmap的时候创建的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！不是Loadmap时创建，而是收到客户端的JOIN消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！！</t>
+    <t>void APlayerController::PostInitializeComponents()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是和PlayerController绑定的，在PlayerController的PostInitializeComponents里创建并初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！不能发生在Loadmap时，因为DS上面创建PlayerController是收到JOIN消息触发的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到客户端Join消息包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！纯客户端是在收到服务器消息的时候才创建的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到DS的消息后创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和PlayerController绑定时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World上面会保存所有的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameState里面会保存所有的PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为对象是通过World::SpawnActor创建的，默认就存在主Level的Actors里面了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和PC结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameStateBase::PostInitializeComponents()</t>
+  </si>
+  <si>
+    <t>遍历当前World中所有的PlayerState，存放到自己身上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for (TActorIterator&lt;APlayerState&gt; It(World); It; ++It)</t>
+  </si>
+  <si>
+    <t>AddPlayerState(*It);</t>
+  </si>
+  <si>
+    <t>通过DS的消息，反射机制直接设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APlayerState* Acontroller::PlayerState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AController::InitPlayerState()里面创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过DS的消息，直接绑定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>case NMT_Join:</t>
+  </si>
+  <si>
+    <t>Connection-&gt;PlayerController = SpawnPlayActor( Connection, ROLE_AutonomousProxy, InURL, Connection-&gt;PlayerId, ErrorMsg );</t>
+  </si>
+  <si>
+    <t>创建PlayerController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！新的Player登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,6 +347,202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC6B7DD-C24C-5F01-5B8F-E193869168FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="1066800"/>
+          <a:ext cx="10277475" cy="4780221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>207549</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>103780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CED5BC4-E8D4-15C8-D965-F9923291CE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="647700"/>
+          <a:ext cx="16009524" cy="7961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>55821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A508E4E8-E556-4861-AB48-E0795B83F24C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="1066800"/>
+          <a:ext cx="10277475" cy="4780221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>207549</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>103780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B6A1BB1-3FB1-4A09-AEFE-6A29DE0F9FDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="647700"/>
+          <a:ext cx="16009524" cy="7961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,225 +808,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:P46"/>
+  <dimension ref="B2:P61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:W43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="F11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="F12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="E17">
         <v>2</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="1" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F13" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G15" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F19" t="s">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F23" s="1" t="s">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F38" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F26" s="1" t="s">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F41" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E31" s="1" t="s">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="G37" t="s">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H38" s="3" t="s">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="P53" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H39" t="s">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E42" s="1" t="s">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B60" s="1">
         <v>3</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="1" t="s">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -756,12 +1147,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6CFB86-7AE1-406A-BD4B-08E384851E3D}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -769,35 +1363,195 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD8172D-1310-4D3A-B0F9-190F90A9155F}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F01041-7A0D-42A0-A247-B487F9C258EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A16BA2-B93F-44BB-8A91-77A8452E8BFB}">
-  <dimension ref="B4:P41"/>
+  <dimension ref="A2:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -805,187 +1559,203 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E7" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F11" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G13" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F17" t="s">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="1" t="s">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F22" t="s">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E23" t="s">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="1" t="s">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D27" s="3" t="s">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="1" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E30" t="s">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="1" t="s">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E33" t="s">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G35" t="s">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="H36" s="3" t="s">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P36" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="H37" t="s">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E40" s="1" t="s">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
         <v>26</v>
       </c>
     </row>
@@ -997,167 +1767,188 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F412F20-519E-424F-8189-A710E2B7547D}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18CD9F4-407F-44D5-A4C2-BE146F7EC644}">
-  <dimension ref="B4:P43"/>
+  <dimension ref="A2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E34" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="F36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="G37" t="s">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H38" s="3" t="s">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="H39" t="s">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E42" s="1" t="s">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.2">
-      <c r="E43" t="s">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>